--- a/Crawling/music/crawled_data/outlier_data/2022-05-09_2022-05-15/2022-05-09_2022-05-15_Top10_rank_change_df.xlsx
+++ b/Crawling/music/crawled_data/outlier_data/2022-05-09_2022-05-15/2022-05-09_2022-05-15_Top10_rank_change_df.xlsx
@@ -34,60 +34,60 @@
     <t>과거순위평균</t>
   </si>
   <si>
+    <t>Celeb</t>
+  </si>
+  <si>
+    <t>FEARLESS</t>
+  </si>
+  <si>
     <t>Feel My Rhythm</t>
   </si>
   <si>
     <t>LOVE DIVE</t>
   </si>
   <si>
+    <t>Seoul</t>
+  </si>
+  <si>
     <t>TOMBOY</t>
   </si>
   <si>
     <t>That That (prod. &amp; feat. SUGA of BTS)</t>
   </si>
   <si>
+    <t>감동이야 (feat. 성시경)</t>
+  </si>
+  <si>
+    <t>기억해 줘요</t>
+  </si>
+  <si>
+    <t>봄 to 러브</t>
+  </si>
+  <si>
+    <t>봄여름가을겨울 (Still Life)</t>
+  </si>
+  <si>
+    <t>사랑인가 봐</t>
+  </si>
+  <si>
+    <t>이제는 (feat. 화사)</t>
+  </si>
+  <si>
+    <t>초대</t>
+  </si>
+  <si>
     <t>다시 만날 수 있을까</t>
   </si>
   <si>
-    <t>봄여름가을겨울 (Still Life)</t>
-  </si>
-  <si>
     <t>사랑은 늘 도망가</t>
   </si>
   <si>
-    <t>사랑인가 봐</t>
-  </si>
-  <si>
     <t>우리들의 블루스</t>
   </si>
   <si>
     <t>취중고백</t>
   </si>
   <si>
-    <t>Celeb</t>
-  </si>
-  <si>
-    <t>FEARLESS</t>
-  </si>
-  <si>
-    <t>Seoul</t>
-  </si>
-  <si>
-    <t>감동이야 (feat. 성시경)</t>
-  </si>
-  <si>
-    <t>기억해 줘요</t>
-  </si>
-  <si>
-    <t>봄 to 러브</t>
-  </si>
-  <si>
-    <t>이제는 (feat. 화사)</t>
-  </si>
-  <si>
-    <t>초대</t>
-  </si>
-  <si>
     <t>GANADARA (Feat. 아이유)</t>
   </si>
   <si>
@@ -103,45 +103,45 @@
     <t>신호등</t>
   </si>
   <si>
+    <t>싸이 (PSY)</t>
+  </si>
+  <si>
+    <t>LE SSERAFIM (르세라핌)</t>
+  </si>
+  <si>
     <t>Red Velvet (레드벨벳)</t>
   </si>
   <si>
     <t>IVE (아이브)</t>
   </si>
   <si>
+    <t>볼빨간사춘기</t>
+  </si>
+  <si>
     <t>(여자)아이들</t>
   </si>
   <si>
-    <t>싸이 (PSY)</t>
+    <t>다비치</t>
+  </si>
+  <si>
+    <t>10CM</t>
+  </si>
+  <si>
+    <t>BIGBANG (빅뱅)</t>
+  </si>
+  <si>
+    <t>멜로망스(MeloMance)</t>
   </si>
   <si>
     <t>임영웅</t>
   </si>
   <si>
-    <t>BIGBANG (빅뱅)</t>
-  </si>
-  <si>
     <t>멜로망스</t>
   </si>
   <si>
     <t>김민석 (멜로망스)</t>
   </si>
   <si>
-    <t>LE SSERAFIM (르세라핌)</t>
-  </si>
-  <si>
-    <t>볼빨간사춘기</t>
-  </si>
-  <si>
-    <t>다비치</t>
-  </si>
-  <si>
-    <t>10CM</t>
-  </si>
-  <si>
-    <t>멜로망스(MeloMance)</t>
-  </si>
-  <si>
     <t>박재범</t>
   </si>
   <si>
@@ -172,10 +172,10 @@
     <t>김민석(멜로망스)</t>
   </si>
   <si>
+    <t>Bugs</t>
+  </si>
+  <si>
     <t>Flo</t>
-  </si>
-  <si>
-    <t>Bugs</t>
   </si>
   <si>
     <t>Genie</t>
@@ -570,7 +570,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>8.199999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -579,18 +579,18 @@
         <v>29</v>
       </c>
       <c r="D2">
-        <v>0.7999999999999989</v>
+        <v>1.5</v>
       </c>
       <c r="E2" t="s">
         <v>52</v>
       </c>
       <c r="F2">
-        <v>7.4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>2</v>
+        <v>6.3</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -599,18 +599,18 @@
         <v>30</v>
       </c>
       <c r="D3">
-        <v>-0.1000000000000001</v>
+        <v>-2.000000000000001</v>
       </c>
       <c r="E3" t="s">
         <v>52</v>
       </c>
       <c r="F3">
-        <v>2.1</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -619,18 +619,18 @@
         <v>31</v>
       </c>
       <c r="D4">
-        <v>-0.5</v>
+        <v>1.4</v>
       </c>
       <c r="E4" t="s">
         <v>52</v>
       </c>
       <c r="F4">
-        <v>3.9</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -639,18 +639,18 @@
         <v>32</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E5" t="s">
         <v>52</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>8.9</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -659,18 +659,18 @@
         <v>33</v>
       </c>
       <c r="D6">
-        <v>0.09999999999999964</v>
+        <v>-3.199999999999999</v>
       </c>
       <c r="E6" t="s">
         <v>52</v>
       </c>
       <c r="F6">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>3.9</v>
+        <v>6.7</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -679,47 +679,47 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="E7" t="s">
         <v>52</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>-0.7999999999999998</v>
+        <v>0.7</v>
       </c>
       <c r="E8" t="s">
         <v>52</v>
       </c>
       <c r="F8">
-        <v>5.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="E9" t="s">
         <v>52</v>
@@ -730,27 +730,27 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>6.7</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>-0.5999999999999996</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>52</v>
       </c>
       <c r="F10">
-        <v>7.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -759,90 +759,90 @@
         <v>36</v>
       </c>
       <c r="D11">
-        <v>0.4000000000000004</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
         <v>52</v>
       </c>
       <c r="F11">
-        <v>9.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13">
-        <v>-2.000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13">
-        <v>8.300000000000001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
       <c r="D14">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>3.4</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15">
         <v>7</v>
       </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15">
-        <v>0.3999999999999999</v>
-      </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -850,87 +850,87 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>-3.199999999999999</v>
+        <v>0.7999999999999989</v>
       </c>
       <c r="E16" t="s">
         <v>53</v>
       </c>
       <c r="F16">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>6.7</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>1.3</v>
+        <v>-0.1000000000000001</v>
       </c>
       <c r="E17" t="s">
         <v>53</v>
       </c>
       <c r="F17">
-        <v>5.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D18">
-        <v>0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="E18" t="s">
         <v>53</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>6.8</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="E19" t="s">
         <v>53</v>
       </c>
       <c r="F19">
-        <v>5.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>5</v>
+        <v>8.9</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -939,98 +939,98 @@
         <v>39</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E20" t="s">
         <v>53</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>10</v>
+        <v>3.9</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>1.9</v>
       </c>
       <c r="E21" t="s">
         <v>53</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>7.6</v>
+        <v>4.9</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D22">
-        <v>2.6</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E22" t="s">
         <v>53</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>7.5</v>
+        <v>6.1</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E23" t="s">
         <v>53</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>10</v>
+        <v>6.7</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D24">
-        <v>3.5</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E24" t="s">
         <v>53</v>
       </c>
       <c r="F24">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -1039,13 +1039,13 @@
         <v>41</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E25" t="s">
         <v>53</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1053,10 +1053,10 @@
         <v>7.3</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1093,10 +1093,10 @@
         <v>3.1</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>2.6</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D30">
         <v>-1.3</v>
@@ -1173,10 +1173,10 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D32">
         <v>0.3000000000000007</v>
@@ -1193,10 +1193,10 @@
         <v>3.3</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D33">
         <v>1.3</v>
@@ -1213,10 +1213,10 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D34">
         <v>-0.09999999999999964</v>
@@ -1233,7 +1233,7 @@
         <v>5.1</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
         <v>45</v>
@@ -1253,10 +1253,10 @@
         <v>7.8</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D36">
         <v>0.2000000000000002</v>
@@ -1273,10 +1273,10 @@
         <v>9.5</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D37">
         <v>0.5</v>
@@ -1293,10 +1293,10 @@
         <v>7.9</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D38">
         <v>0.6000000000000005</v>
@@ -1313,10 +1313,10 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D39">
         <v>0.6000000000000001</v>
@@ -1353,10 +1353,10 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D41">
         <v>0.3999999999999999</v>
@@ -1373,10 +1373,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D42">
         <v>-2.7</v>
@@ -1393,10 +1393,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D43">
         <v>-0.7999999999999989</v>
@@ -1413,10 +1413,10 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1433,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D45">
         <v>-0.2999999999999998</v>
@@ -1453,10 +1453,10 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D46">
         <v>0.09999999999999964</v>
@@ -1473,10 +1473,10 @@
         <v>7.3</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D47">
         <v>0.3999999999999995</v>
@@ -1493,10 +1493,10 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D48">
         <v>0.2999999999999998</v>
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
         <v>47</v>
@@ -1573,7 +1573,7 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
         <v>48</v>
@@ -1593,10 +1593,10 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D53">
         <v>-1.9</v>
@@ -1613,10 +1613,10 @@
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -1633,7 +1633,7 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
         <v>49</v>
@@ -1673,7 +1673,7 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C57" t="s">
         <v>51</v>
